--- a/projects/MSDA_Project_List.xlsx
+++ b/projects/MSDA_Project_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arundas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2963AF6-CFD0-EF4A-935C-D9E4CECA9C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFE2751-80AB-6C47-BB98-8457D1D477D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12800" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{43FE0427-5AF0-AC4D-AD34-885345A3FBF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{43FE0427-5AF0-AC4D-AD34-885345A3FBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -173,6 +173,32 @@
   </si>
   <si>
     <t xml:space="preserve">1. Download and uncompress the datasets and start analyzing the json metadata using Pandas. 2. Follow the steps in https://github.com/cesc-park/attend2u#training to train your neural network. Since GPUs might be required to train the model, work with Arun to get GPU lease. 3. Generate hashtags and captions for new Instagram posts by mining Instagram data using web scrapers. Code available, but success highly depends on whether Instagram changes their API’s. Work with Arun to download data. 4. Carry out topic modeling using LDA, TFIDF, and other techniques that you study in the course to find trending topics, number of likes, user engagement in specific topics such as food, travel, clothing, etc. 5. Write and summarize your findings every two weeks, and a final report at the end of the course. </t>
+  </si>
+  <si>
+    <t>Anomaly Detection using Adversarial Learning on Big Data</t>
+  </si>
+  <si>
+    <t>Identification of events from streaming videos, audio or other big data, which does not conform with the training data distribution and expected behavior is essential for modern smart cities. As we embrace inclusion of security cameras, digital assistants which listen to us, etc., the use of algorithms which detect anomalies could help deter threats, and unwanted scenarios automatically. In industries, automated anomaly detection algorithms could learn from a set of training data to monitor specific tasks, altering in cases of anomalies in different conditions – that might not be possible with present control systems. For example, proper working of a product line, or gear mechanisms could be monitored using anomaly detection algorithms. This project focuses on a Generative Adversarial Network (GAN) based anomaly detection algorithm which learns to generalize on a training data distribution and expected behavior of objects in the dataset. Hence, once trained, the GAN model can discriminate anomalies and alert users on the onset of anomalies. The main goal of the project is to use a GAN architecture to find anomalies in the data sources mentioned below.</t>
+  </si>
+  <si>
+    <t>Data Sources:
+CUHK Avenue dataset
+CUHK Avenue dataset contains 16 training videos and 21 testing ones with a total of 47 abnormal events, including throwing objects, loitering and running. The size of people may change because of the camera position and angle
+UCSD Pedestrian dataset
+The UCSD dataset contains two parts: The UCSD Pedestrian 1 (Ped1) dataset and the UCSD Pedestrian 2 (Ped2) dataset. The UCSD Pedestrian 1 (Ped1) dataset includes 34 training videos and 36 testing ones with 40 irregular events. All of these abnormal cases are about vehicles such as bicycles and cars. The UCSD Pedestrian 2 (Ped2) dataset contains 16 training videos and 12 testing videos with 12 abnormal events. The definition of anomaly for Ped2 is the same with Ped1. Usually different methods are evaluated on these two parts separately
+ShanghaiTech dataset
+The ShanghaiTech dataset is a very challenging anomaly detection dataset. It contains 330 training videos and 107 testing ones with 130 abnormal events. Totally, it consists of 13 scenes and various anomaly types.</t>
+  </si>
+  <si>
+    <t>Tasks:
+Download the datasets from https://github.com/StevenLiuWen/ano_pred_cvpr2018#2-download-datasets
+Read and understand about anomaly detection using GANs: https://arxiv.org/pdf/1712.09867.pdf
+Work with Arun and run the training code available in: https://github.com/StevenLiuWen/ano_pred_cvpr2018#4-training-from-scratch-here-we-use-ped2-and-avenue-datasets-for-examples
+Collect your own dataset and test the model – fun experiments! Learn, and explore scenarios to apply the algorithm from a bigdata context.
+Write a short report on your findings, and experiments.</t>
+  </si>
+  <si>
+    <t>Not required.</t>
   </si>
 </sst>
 </file>
@@ -630,9 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC220C6-57B6-4C4E-9418-1047271F0AED}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -761,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="152" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -807,7 +835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -828,6 +856,29 @@
       </c>
       <c r="G8" s="6" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -835,5 +886,6 @@
     <hyperlink ref="F6" r:id="rId1" display="https://github.com/henrychacon/StockTwits-and-yahoo-downloading-tool" xr:uid="{7E0EA8DF-FF8E-6F4F-9409-74AFC50EE965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>